--- a/web/files/base.xlsx
+++ b/web/files/base.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t># faer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>nombre del proyecto</t>
   </si>
@@ -30,30 +27,6 @@
     <t>número de radicado</t>
   </si>
   <si>
-    <t>empresa que presentó</t>
-  </si>
-  <si>
-    <t>empresa que ejecutó</t>
-  </si>
-  <si>
-    <t>valor total</t>
-  </si>
-  <si>
-    <t>valor cofinanciado</t>
-  </si>
-  <si>
-    <t>solicitud FAER</t>
-  </si>
-  <si>
-    <t>usuarios ampliación</t>
-  </si>
-  <si>
-    <t>usuarios mejoramiento</t>
-  </si>
-  <si>
-    <t>valor por usuario</t>
-  </si>
-  <si>
     <t>departamento</t>
   </si>
   <si>
@@ -66,28 +39,40 @@
     <t>longitud</t>
   </si>
   <si>
-    <t>fecha presentación</t>
-  </si>
-  <si>
-    <t>fecha aprobación</t>
-  </si>
-  <si>
-    <t>fecha ajuste</t>
-  </si>
-  <si>
-    <t>CUP</t>
-  </si>
-  <si>
-    <t>COB</t>
-  </si>
-  <si>
-    <t>NBI</t>
-  </si>
-  <si>
-    <t>UN</t>
-  </si>
-  <si>
-    <t>OEP</t>
+    <t>no_faer</t>
+  </si>
+  <si>
+    <t>nit empresa que presentó</t>
+  </si>
+  <si>
+    <t>nit empresa que ejecutó</t>
+  </si>
+  <si>
+    <t>fecha_radicacion</t>
+  </si>
+  <si>
+    <t>fecha_aprobacion</t>
+  </si>
+  <si>
+    <t>oep</t>
+  </si>
+  <si>
+    <t>veredas</t>
+  </si>
+  <si>
+    <t>valor_total</t>
+  </si>
+  <si>
+    <t>valor cofinanciacion</t>
+  </si>
+  <si>
+    <t>aporte fondo</t>
+  </si>
+  <si>
+    <t>usuarios existentes</t>
+  </si>
+  <si>
+    <t>usuarios nuevos</t>
   </si>
 </sst>
 </file>
@@ -456,68 +441,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.1640625" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
@@ -533,21 +519,6 @@
       </c>
       <c r="R1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
